--- a/report/data.xlsx
+++ b/report/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="115">
   <si>
     <t>blues ['country']</t>
   </si>
@@ -276,13 +276,464 @@
   </si>
   <si>
     <t>train_model_5nn_ball_tree</t>
+  </si>
+  <si>
+    <t>blues ['reggae']</t>
+  </si>
+  <si>
+    <t>blues ['pop']</t>
+  </si>
+  <si>
+    <t>classical ['metal']</t>
+  </si>
+  <si>
+    <t>classical ['reggae']</t>
+  </si>
+  <si>
+    <t>hiphop ['rock']</t>
+  </si>
+  <si>
+    <t>jazz ['hiphop']</t>
+  </si>
+  <si>
+    <t>metal ['pop']</t>
+  </si>
+  <si>
+    <t>metal ['jazz']</t>
+  </si>
+  <si>
+    <t>pop ['reggae']</t>
+  </si>
+  <si>
+    <t>pop ['metal']</t>
+  </si>
+  <si>
+    <t>reggae ['rock']</t>
+  </si>
+  <si>
+    <t>reggae ['classical']</t>
+  </si>
+  <si>
+    <t>accuracy:  0.23</t>
+  </si>
+  <si>
+    <t>train_model_melspectrogram</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>(mfcc)):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    X.append(np.mean(mfcc[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">(mfcc_len / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">(mfcc_len * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">)], </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660099"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>axis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>a take pouzit random forest</t>
+  </si>
+  <si>
+    <t>hiphop ['classical']</t>
+  </si>
+  <si>
+    <t>jazz ['disco']</t>
+  </si>
+  <si>
+    <t>jazz ['pop']</t>
+  </si>
+  <si>
+    <t>pop ['classical']</t>
+  </si>
+  <si>
+    <t>X = []</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    mfcc_len = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>(mfcc[i])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    X.append(np.mean(mfcc[i][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">(mfcc_len / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">(mfcc_len * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">)], </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660099"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>axis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>train_model_melspectrogram2</t>
+  </si>
+  <si>
+    <t>accuracy:  0.47</t>
+  </si>
+  <si>
+    <t>7NeighborsClassifier</t>
+  </si>
+  <si>
+    <t>accuracy:  0.46</t>
+  </si>
+  <si>
+    <t>train_model_knn_13</t>
+  </si>
+  <si>
+    <t>accuracy:  0.155</t>
+  </si>
+  <si>
+    <t>train_model_Kullback_Leibler.pkl</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">np.sum(np.where(p != </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, p * np.log(p / q), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>))</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -294,6 +745,32 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF008080"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000080"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000080"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF660099"/>
       <name val="Menlo"/>
     </font>
   </fonts>
@@ -317,9 +794,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -597,1631 +1076,4699 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D202"/>
+  <dimension ref="B1:AR202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AR4" sqref="AR4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+      <c r="R10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="R11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="R13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>65</v>
+      </c>
+      <c r="R16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>84</v>
+      </c>
+      <c r="R19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>84</v>
+      </c>
+      <c r="R20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>2</v>
       </c>
       <c r="D21" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>83</v>
+      </c>
+      <c r="R21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+      <c r="R22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>6</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+      <c r="R23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R24" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>6</v>
+      </c>
+      <c r="R25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+      <c r="R26" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+      <c r="R27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>6</v>
+      </c>
+      <c r="R28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>6</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>6</v>
+      </c>
+      <c r="R29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="D31" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>6</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>67</v>
+      </c>
+      <c r="R32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>6</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>6</v>
+      </c>
+      <c r="R33" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="D34" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>85</v>
+      </c>
+      <c r="R34" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>6</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>6</v>
+      </c>
+      <c r="R35" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>6</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>6</v>
+      </c>
+      <c r="R36" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>6</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>86</v>
+      </c>
+      <c r="R37" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>6</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>6</v>
+      </c>
+      <c r="R38" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>6</v>
       </c>
       <c r="D39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
+        <v>6</v>
+      </c>
+      <c r="R39" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>6</v>
+      </c>
+      <c r="R40" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>6</v>
       </c>
       <c r="D41" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>67</v>
+      </c>
+      <c r="R41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>9</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="R42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>68</v>
+      </c>
+      <c r="R43" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>11</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+      <c r="R44" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>12</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>12</v>
+      </c>
+      <c r="R45" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>12</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="R46" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>12</v>
       </c>
       <c r="D47" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+      <c r="R47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>13</v>
       </c>
       <c r="D48" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>10</v>
+      </c>
+      <c r="R48" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>9</v>
       </c>
       <c r="D49" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>68</v>
+      </c>
+      <c r="R49" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>13</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>15</v>
+      </c>
+      <c r="R50" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>14</v>
       </c>
       <c r="D51" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H51" t="s">
+        <v>12</v>
+      </c>
+      <c r="R51" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>10</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="R52" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>11</v>
       </c>
       <c r="D53" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H53" t="s">
+        <v>68</v>
+      </c>
+      <c r="R53" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>12</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H54" t="s">
+        <v>12</v>
+      </c>
+      <c r="R54" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>15</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H55" t="s">
+        <v>15</v>
+      </c>
+      <c r="R55" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>9</v>
       </c>
       <c r="D56" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
+      <c r="R56" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>12</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H57" t="s">
+        <v>17</v>
+      </c>
+      <c r="R57" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="D58" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H58" t="s">
+        <v>68</v>
+      </c>
+      <c r="R58" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>14</v>
       </c>
       <c r="D59" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H59" t="s">
+        <v>16</v>
+      </c>
+      <c r="R59" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>17</v>
       </c>
       <c r="D60" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+      <c r="R60" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>11</v>
       </c>
       <c r="D61" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H61" t="s">
+        <v>17</v>
+      </c>
+      <c r="R61" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>18</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H62" t="s">
+        <v>24</v>
+      </c>
+      <c r="R62" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>19</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H63" t="s">
+        <v>21</v>
+      </c>
+      <c r="R63" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>20</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H64" t="s">
+        <v>24</v>
+      </c>
+      <c r="R64" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>21</v>
       </c>
       <c r="D65" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H65" t="s">
+        <v>22</v>
+      </c>
+      <c r="R65" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>18</v>
       </c>
       <c r="D66" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H66" t="s">
+        <v>20</v>
+      </c>
+      <c r="R66" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>20</v>
       </c>
       <c r="D67" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H67" t="s">
+        <v>19</v>
+      </c>
+      <c r="R67" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>21</v>
       </c>
       <c r="D68" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H68" t="s">
+        <v>19</v>
+      </c>
+      <c r="R68" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>20</v>
       </c>
       <c r="D69" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H69" t="s">
+        <v>22</v>
+      </c>
+      <c r="R69" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>22</v>
       </c>
       <c r="D70" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H70" t="s">
+        <v>21</v>
+      </c>
+      <c r="R70" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>23</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H71" t="s">
+        <v>24</v>
+      </c>
+      <c r="R71" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>20</v>
       </c>
       <c r="D72" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H72" t="s">
+        <v>24</v>
+      </c>
+      <c r="R72" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>24</v>
       </c>
       <c r="D73" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H73" t="s">
+        <v>20</v>
+      </c>
+      <c r="R73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>22</v>
       </c>
       <c r="D74" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H74" t="s">
+        <v>24</v>
+      </c>
+      <c r="R74" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>20</v>
       </c>
       <c r="D75" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H75" t="s">
+        <v>70</v>
+      </c>
+      <c r="R75" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>22</v>
       </c>
       <c r="D76" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H76" t="s">
+        <v>20</v>
+      </c>
+      <c r="R76" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP76" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>20</v>
       </c>
       <c r="D77" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H77" t="s">
+        <v>23</v>
+      </c>
+      <c r="R77" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP77" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>25</v>
       </c>
       <c r="D78" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H78" t="s">
+        <v>19</v>
+      </c>
+      <c r="R78" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM78" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>19</v>
       </c>
       <c r="D79" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H79" t="s">
+        <v>22</v>
+      </c>
+      <c r="R79" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM79" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>25</v>
       </c>
       <c r="D80" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H80" t="s">
+        <v>20</v>
+      </c>
+      <c r="R80" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM80" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>20</v>
       </c>
       <c r="D81" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H81" t="s">
+        <v>20</v>
+      </c>
+      <c r="R81" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM81" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>26</v>
       </c>
       <c r="D82" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H82" t="s">
+        <v>26</v>
+      </c>
+      <c r="R82" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM82" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>27</v>
       </c>
       <c r="D83" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H83" t="s">
+        <v>87</v>
+      </c>
+      <c r="R83" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM83" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>27</v>
       </c>
       <c r="D84" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H84" t="s">
+        <v>30</v>
+      </c>
+      <c r="R84" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM84" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP84" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>26</v>
       </c>
       <c r="D85" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H85" t="s">
+        <v>30</v>
+      </c>
+      <c r="R85" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM85" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>26</v>
       </c>
       <c r="D86" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H86" t="s">
+        <v>26</v>
+      </c>
+      <c r="R86" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM86" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP86" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>28</v>
       </c>
       <c r="D87" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H87" t="s">
+        <v>28</v>
+      </c>
+      <c r="R87" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM87" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP87" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>29</v>
       </c>
       <c r="D88" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H88" t="s">
+        <v>27</v>
+      </c>
+      <c r="R88" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM88" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP88" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>30</v>
       </c>
       <c r="D89" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H89" t="s">
+        <v>87</v>
+      </c>
+      <c r="R89" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM89" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP89" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>28</v>
       </c>
       <c r="D90" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H90" t="s">
+        <v>72</v>
+      </c>
+      <c r="R90" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM90" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP90" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>31</v>
       </c>
       <c r="D91" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H91" t="s">
+        <v>31</v>
+      </c>
+      <c r="R91" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM91" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP91" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>26</v>
       </c>
       <c r="D92" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H92" t="s">
+        <v>26</v>
+      </c>
+      <c r="R92" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM92" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP92" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>31</v>
       </c>
       <c r="D93" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H93" t="s">
+        <v>71</v>
+      </c>
+      <c r="R93" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM93" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP93" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>28</v>
       </c>
       <c r="D94" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H94" t="s">
+        <v>27</v>
+      </c>
+      <c r="R94" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM94" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP94" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>26</v>
       </c>
       <c r="D95" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H95" t="s">
+        <v>30</v>
+      </c>
+      <c r="R95" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM95" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP95" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>26</v>
       </c>
       <c r="D96" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H96" t="s">
+        <v>26</v>
+      </c>
+      <c r="R96" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM96" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP96" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>29</v>
       </c>
       <c r="D97" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H97" t="s">
+        <v>71</v>
+      </c>
+      <c r="R97" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM97" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>26</v>
       </c>
       <c r="D98" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H98" t="s">
+        <v>31</v>
+      </c>
+      <c r="R98" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM98" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP98" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>26</v>
       </c>
       <c r="D99" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H99" t="s">
+        <v>31</v>
+      </c>
+      <c r="R99" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM99" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP99" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>26</v>
       </c>
       <c r="D100" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H100" t="s">
+        <v>28</v>
+      </c>
+      <c r="R100" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM100" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP100" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>29</v>
       </c>
       <c r="D101" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H101" t="s">
+        <v>87</v>
+      </c>
+      <c r="R101" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM101" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>32</v>
       </c>
       <c r="D102" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H102" t="s">
+        <v>32</v>
+      </c>
+      <c r="R102" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM102" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP102" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>32</v>
       </c>
       <c r="D103" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H103" t="s">
+        <v>32</v>
+      </c>
+      <c r="R103" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC103" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM103" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP103" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>33</v>
       </c>
       <c r="D104" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H104" t="s">
+        <v>32</v>
+      </c>
+      <c r="R104" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC104" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM104" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP104" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>32</v>
       </c>
       <c r="D105" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H105" t="s">
+        <v>33</v>
+      </c>
+      <c r="R105" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM105" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP105" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>34</v>
       </c>
       <c r="D106" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H106" t="s">
+        <v>37</v>
+      </c>
+      <c r="R106" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC106" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM106" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP106" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>33</v>
       </c>
       <c r="D107" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H107" t="s">
+        <v>32</v>
+      </c>
+      <c r="R107" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC107" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM107" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP107" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>33</v>
       </c>
       <c r="D108" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H108" t="s">
+        <v>32</v>
+      </c>
+      <c r="R108" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC108" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM108" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP108" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>35</v>
       </c>
       <c r="D109" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H109" t="s">
+        <v>33</v>
+      </c>
+      <c r="R109" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC109" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM109" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP109" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>32</v>
       </c>
       <c r="D110" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H110" t="s">
+        <v>35</v>
+      </c>
+      <c r="R110" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC110" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM110" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP110" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>35</v>
       </c>
       <c r="D111" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H111" t="s">
+        <v>35</v>
+      </c>
+      <c r="R111" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM111" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP111" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>36</v>
       </c>
       <c r="D112" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H112" t="s">
+        <v>35</v>
+      </c>
+      <c r="R112" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC112" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM112" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP112" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>32</v>
       </c>
       <c r="D113" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H113" t="s">
+        <v>37</v>
+      </c>
+      <c r="R113" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC113" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM113" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP113" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>36</v>
       </c>
       <c r="D114" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H114" t="s">
+        <v>88</v>
+      </c>
+      <c r="R114" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC114" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM114" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP114" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>37</v>
       </c>
       <c r="D115" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H115" t="s">
+        <v>35</v>
+      </c>
+      <c r="R115" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC115" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM115" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP115" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>37</v>
       </c>
       <c r="D116" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H116" t="s">
+        <v>37</v>
+      </c>
+      <c r="R116" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC116" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM116" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP116" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>33</v>
       </c>
       <c r="D117" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H117" t="s">
+        <v>37</v>
+      </c>
+      <c r="R117" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC117" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM117" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP117" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>37</v>
       </c>
       <c r="D118" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H118" t="s">
+        <v>73</v>
+      </c>
+      <c r="R118" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC118" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM118" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP118" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>35</v>
       </c>
       <c r="D119" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H119" t="s">
+        <v>32</v>
+      </c>
+      <c r="R119" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC119" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM119" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP119" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>37</v>
       </c>
       <c r="D120" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H120" t="s">
+        <v>37</v>
+      </c>
+      <c r="R120" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC120" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM120" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP120" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>33</v>
       </c>
       <c r="D121" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H121" t="s">
+        <v>32</v>
+      </c>
+      <c r="R121" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC121" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM121" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP121" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>38</v>
       </c>
       <c r="D122" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H122" t="s">
+        <v>39</v>
+      </c>
+      <c r="R122" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC122" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM122" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP122" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="123" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>38</v>
       </c>
       <c r="D123" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H123" t="s">
+        <v>89</v>
+      </c>
+      <c r="R123" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC123" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM123" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP123" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>38</v>
       </c>
       <c r="D124" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H124" t="s">
+        <v>89</v>
+      </c>
+      <c r="R124" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC124" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM124" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP124" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>38</v>
       </c>
       <c r="D125" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H125" t="s">
+        <v>38</v>
+      </c>
+      <c r="R125" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC125" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM125" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP125" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="126" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>38</v>
       </c>
       <c r="D126" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H126" t="s">
+        <v>89</v>
+      </c>
+      <c r="R126" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC126" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM126" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP126" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>38</v>
       </c>
       <c r="D127" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H127" t="s">
+        <v>75</v>
+      </c>
+      <c r="R127" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC127" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM127" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP127" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="128" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>38</v>
       </c>
       <c r="D128" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H128" t="s">
+        <v>41</v>
+      </c>
+      <c r="R128" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC128" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM128" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP128" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>39</v>
       </c>
       <c r="D129" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H129" t="s">
+        <v>40</v>
+      </c>
+      <c r="R129" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC129" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM129" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP129" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>38</v>
       </c>
       <c r="D130" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H130" t="s">
+        <v>75</v>
+      </c>
+      <c r="R130" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC130" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM130" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP130" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="131" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>38</v>
       </c>
       <c r="D131" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H131" t="s">
+        <v>38</v>
+      </c>
+      <c r="R131" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC131" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM131" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP131" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="132" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>38</v>
       </c>
       <c r="D132" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H132" t="s">
+        <v>89</v>
+      </c>
+      <c r="R132" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC132" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM132" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP132" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="133" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>39</v>
       </c>
       <c r="D133" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H133" t="s">
+        <v>40</v>
+      </c>
+      <c r="R133" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC133" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM133" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP133" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="134" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>40</v>
       </c>
       <c r="D134" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H134" t="s">
+        <v>42</v>
+      </c>
+      <c r="R134" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC134" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM134" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP134" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="135" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>38</v>
       </c>
       <c r="D135" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H135" t="s">
+        <v>38</v>
+      </c>
+      <c r="R135" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC135" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM135" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP135" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="136" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>38</v>
       </c>
       <c r="D136" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H136" t="s">
+        <v>38</v>
+      </c>
+      <c r="R136" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC136" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM136" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP136" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="137" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>38</v>
       </c>
       <c r="D137" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H137" t="s">
+        <v>89</v>
+      </c>
+      <c r="R137" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC137" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM137" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP137" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>41</v>
       </c>
       <c r="D138" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H138" t="s">
+        <v>38</v>
+      </c>
+      <c r="R138" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC138" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM138" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP138" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="139" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>42</v>
       </c>
       <c r="D139" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H139" t="s">
+        <v>90</v>
+      </c>
+      <c r="R139" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC139" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM139" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP139" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="140" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>38</v>
       </c>
       <c r="D140" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H140" t="s">
+        <v>38</v>
+      </c>
+      <c r="R140" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC140" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM140" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP140" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="141" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>38</v>
       </c>
       <c r="D141" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H141" t="s">
+        <v>39</v>
+      </c>
+      <c r="R141" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC141" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM141" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP141" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="142" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>43</v>
       </c>
       <c r="D142" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H142" t="s">
+        <v>43</v>
+      </c>
+      <c r="R142" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC142" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM142" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP142" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="143" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>44</v>
       </c>
       <c r="D143" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H143" t="s">
+        <v>91</v>
+      </c>
+      <c r="R143" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC143" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM143" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP143" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="144" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>45</v>
       </c>
       <c r="D144" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H144" t="s">
+        <v>76</v>
+      </c>
+      <c r="R144" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC144" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM144" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP144" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="145" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>44</v>
       </c>
       <c r="D145" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H145" t="s">
+        <v>77</v>
+      </c>
+      <c r="R145" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC145" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM145" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP145" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="146" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>44</v>
       </c>
       <c r="D146" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H146" t="s">
+        <v>44</v>
+      </c>
+      <c r="R146" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC146" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM146" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP146" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="147" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>45</v>
       </c>
       <c r="D147" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H147" t="s">
+        <v>43</v>
+      </c>
+      <c r="R147" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC147" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM147" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP147" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="148" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>44</v>
       </c>
       <c r="D148" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H148" t="s">
+        <v>47</v>
+      </c>
+      <c r="R148" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC148" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM148" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP148" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="149" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>44</v>
       </c>
       <c r="D149" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H149" t="s">
+        <v>92</v>
+      </c>
+      <c r="R149" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC149" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM149" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP149" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="150" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>44</v>
       </c>
       <c r="D150" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H150" t="s">
+        <v>45</v>
+      </c>
+      <c r="R150" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC150" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM150" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP150" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="151" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>46</v>
       </c>
       <c r="D151" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H151" t="s">
+        <v>91</v>
+      </c>
+      <c r="R151" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC151" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM151" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP151" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="152" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>44</v>
       </c>
       <c r="D152" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H152" t="s">
+        <v>92</v>
+      </c>
+      <c r="R152" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC152" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM152" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP152" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="153" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>44</v>
       </c>
       <c r="D153" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H153" t="s">
+        <v>44</v>
+      </c>
+      <c r="R153" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC153" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM153" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP153" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="154" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>47</v>
       </c>
       <c r="D154" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H154" t="s">
+        <v>91</v>
+      </c>
+      <c r="R154" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC154" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM154" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP154" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="155" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>45</v>
       </c>
       <c r="D155" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H155" t="s">
+        <v>92</v>
+      </c>
+      <c r="R155" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC155" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM155" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP155" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="156" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>47</v>
       </c>
       <c r="D156" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H156" t="s">
+        <v>43</v>
+      </c>
+      <c r="R156" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC156" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM156" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP156" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="157" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>47</v>
       </c>
       <c r="D157" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H157" t="s">
+        <v>43</v>
+      </c>
+      <c r="R157" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC157" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM157" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP157" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="158" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>47</v>
       </c>
       <c r="D158" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H158" t="s">
+        <v>43</v>
+      </c>
+      <c r="R158" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC158" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM158" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP158" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="159" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>44</v>
       </c>
       <c r="D159" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H159" t="s">
+        <v>44</v>
+      </c>
+      <c r="R159" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC159" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM159" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP159" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="160" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>45</v>
       </c>
       <c r="D160" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H160" t="s">
+        <v>44</v>
+      </c>
+      <c r="R160" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC160" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM160" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP160" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="161" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>44</v>
       </c>
       <c r="D161" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H161" t="s">
+        <v>44</v>
+      </c>
+      <c r="R161" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC161" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM161" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP161" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="162" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>48</v>
       </c>
       <c r="D162" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H162" t="s">
+        <v>80</v>
+      </c>
+      <c r="R162" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC162" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM162" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP162" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="163" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>49</v>
       </c>
       <c r="D163" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H163" t="s">
+        <v>78</v>
+      </c>
+      <c r="R163" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC163" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM163" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP163" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="164" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>50</v>
       </c>
       <c r="D164" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H164" t="s">
+        <v>50</v>
+      </c>
+      <c r="R164" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC164" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM164" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP164" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="165" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>51</v>
       </c>
       <c r="D165" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H165" t="s">
+        <v>79</v>
+      </c>
+      <c r="R165" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC165" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM165" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP165" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="166" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>50</v>
       </c>
       <c r="D166" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H166" t="s">
+        <v>93</v>
+      </c>
+      <c r="R166" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC166" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM166" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP166" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="167" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>51</v>
       </c>
       <c r="D167" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H167" t="s">
+        <v>80</v>
+      </c>
+      <c r="R167" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC167" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM167" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP167" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="168" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>48</v>
       </c>
       <c r="D168" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H168" t="s">
+        <v>94</v>
+      </c>
+      <c r="R168" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC168" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM168" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP168" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="169" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>50</v>
       </c>
       <c r="D169" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H169" t="s">
+        <v>78</v>
+      </c>
+      <c r="R169" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC169" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM169" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP169" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="170" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>50</v>
       </c>
       <c r="D170" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H170" t="s">
+        <v>94</v>
+      </c>
+      <c r="R170" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC170" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM170" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP170" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="171" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>50</v>
       </c>
       <c r="D171" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H171" t="s">
+        <v>80</v>
+      </c>
+      <c r="R171" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC171" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM171" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP171" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="172" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>50</v>
       </c>
       <c r="D172" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H172" t="s">
+        <v>80</v>
+      </c>
+      <c r="R172" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC172" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM172" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP172" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="173" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>50</v>
       </c>
       <c r="D173" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H173" t="s">
+        <v>50</v>
+      </c>
+      <c r="R173" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC173" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM173" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP173" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="174" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>50</v>
       </c>
       <c r="D174" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H174" t="s">
+        <v>50</v>
+      </c>
+      <c r="R174" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC174" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM174" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP174" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="175" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>52</v>
       </c>
       <c r="D175" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H175" t="s">
+        <v>51</v>
+      </c>
+      <c r="R175" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC175" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM175" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP175" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="176" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>52</v>
       </c>
       <c r="D176" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H176" t="s">
+        <v>49</v>
+      </c>
+      <c r="R176" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC176" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM176" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP176" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="177" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>50</v>
       </c>
       <c r="D177" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H177" t="s">
+        <v>51</v>
+      </c>
+      <c r="R177" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC177" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM177" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP177" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="178" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>50</v>
       </c>
       <c r="D178" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H178" t="s">
+        <v>50</v>
+      </c>
+      <c r="R178" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC178" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM178" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP178" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="179" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>51</v>
       </c>
       <c r="D179" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H179" t="s">
+        <v>93</v>
+      </c>
+      <c r="R179" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC179" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM179" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP179" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="180" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>50</v>
       </c>
       <c r="D180" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H180" t="s">
+        <v>48</v>
+      </c>
+      <c r="R180" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC180" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM180" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP180" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="181" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>51</v>
       </c>
       <c r="D181" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H181" t="s">
+        <v>51</v>
+      </c>
+      <c r="R181" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC181" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM181" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP181" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="182" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>53</v>
       </c>
       <c r="D182" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H182" t="s">
+        <v>56</v>
+      </c>
+      <c r="R182" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC182" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM182" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP182" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="183" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>54</v>
       </c>
       <c r="D183" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H183" t="s">
+        <v>57</v>
+      </c>
+      <c r="R183" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC183" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM183" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP183" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="184" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>55</v>
       </c>
       <c r="D184" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H184" t="s">
+        <v>55</v>
+      </c>
+      <c r="R184" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC184" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM184" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP184" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="185" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>56</v>
       </c>
       <c r="D185" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H185" t="s">
+        <v>58</v>
+      </c>
+      <c r="R185" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC185" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM185" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP185" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="186" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>56</v>
       </c>
       <c r="D186" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H186" t="s">
+        <v>59</v>
+      </c>
+      <c r="R186" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC186" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM186" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP186" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="187" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>57</v>
       </c>
       <c r="D187" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H187" t="s">
+        <v>58</v>
+      </c>
+      <c r="R187" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC187" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM187" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP187" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="188" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>54</v>
       </c>
       <c r="D188" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H188" t="s">
+        <v>57</v>
+      </c>
+      <c r="R188" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC188" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM188" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP188" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="189" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>57</v>
       </c>
       <c r="D189" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H189" t="s">
+        <v>58</v>
+      </c>
+      <c r="R189" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC189" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM189" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP189" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="190" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>58</v>
       </c>
       <c r="D190" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H190" t="s">
+        <v>58</v>
+      </c>
+      <c r="R190" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC190" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM190" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP190" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="191" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>59</v>
       </c>
       <c r="D191" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H191" t="s">
+        <v>56</v>
+      </c>
+      <c r="R191" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC191" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM191" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP191" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="192" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>57</v>
       </c>
       <c r="D192" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H192" t="s">
+        <v>53</v>
+      </c>
+      <c r="R192" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC192" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM192" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP192" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="193" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>56</v>
       </c>
       <c r="D193" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H193" t="s">
+        <v>55</v>
+      </c>
+      <c r="R193" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC193" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM193" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP193" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="194" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>57</v>
       </c>
       <c r="D194" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H194" t="s">
+        <v>55</v>
+      </c>
+      <c r="R194" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC194" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM194" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP194" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="195" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>57</v>
       </c>
       <c r="D195" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H195" t="s">
+        <v>61</v>
+      </c>
+      <c r="R195" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC195" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM195" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP195" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="196" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>55</v>
       </c>
       <c r="D196" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H196" t="s">
+        <v>56</v>
+      </c>
+      <c r="R196" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC196" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM196" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP196" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="197" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>60</v>
       </c>
       <c r="D197" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H197" t="s">
+        <v>53</v>
+      </c>
+      <c r="R197" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC197" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM197" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP197" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="198" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>61</v>
       </c>
       <c r="D198" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H198" t="s">
+        <v>59</v>
+      </c>
+      <c r="R198" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC198" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM198" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP198" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="199" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>53</v>
       </c>
       <c r="D199" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H199" t="s">
+        <v>57</v>
+      </c>
+      <c r="R199" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC199" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM199" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP199" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="200" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>56</v>
       </c>
       <c r="D200" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H200" t="s">
+        <v>61</v>
+      </c>
+      <c r="R200" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC200" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM200" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP200" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="201" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>53</v>
       </c>
       <c r="D201" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H201" t="s">
+        <v>57</v>
+      </c>
+      <c r="R201" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC201" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM201" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP201" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="202" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>62</v>
       </c>
       <c r="D202" t="s">
         <v>81</v>
+      </c>
+      <c r="H202" t="s">
+        <v>95</v>
+      </c>
+      <c r="R202" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC202" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM202" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP202" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/report/data.xlsx
+++ b/report/data.xlsx
@@ -1078,7 +1078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AR202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
       <selection activeCell="AR4" sqref="AR4"/>
     </sheetView>
   </sheetViews>

--- a/report/data.xlsx
+++ b/report/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="119">
   <si>
     <t>blues ['country']</t>
   </si>
@@ -727,6 +727,18 @@
       </rPr>
       <t>))</t>
     </r>
+  </si>
+  <si>
+    <t>accuracy:  0.43</t>
+  </si>
+  <si>
+    <t>train_model_minkowski3_new_features</t>
+  </si>
+  <si>
+    <t>accuracy:  0.435</t>
+  </si>
+  <si>
+    <t>train_model_minkowski4_new_features</t>
   </si>
 </sst>
 </file>
@@ -1076,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AR202"/>
+  <dimension ref="B1:BB202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AR4" sqref="AR4"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BB1" sqref="BB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1089,7 +1101,7 @@
     <col min="39" max="39" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
@@ -1114,8 +1126,14 @@
       <c r="AP1" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AX1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1140,8 +1158,14 @@
       <c r="AP2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AX2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1172,8 +1196,14 @@
       <c r="AP3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AX3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1204,8 +1234,14 @@
       <c r="AR4" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="5" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AX4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -1233,8 +1269,14 @@
       <c r="AP5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AX5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -1262,8 +1304,14 @@
       <c r="AP6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AX6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -1285,8 +1333,14 @@
       <c r="AP7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AX7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -1308,8 +1362,14 @@
       <c r="AP8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AX8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -1331,8 +1391,14 @@
       <c r="AP9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AX9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -1354,8 +1420,14 @@
       <c r="AP10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AX10" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -1377,8 +1449,14 @@
       <c r="AP11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AX11" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>1</v>
       </c>
@@ -1400,8 +1478,14 @@
       <c r="AP12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AX12" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -1423,8 +1507,14 @@
       <c r="AP13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AX13" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -1446,8 +1536,14 @@
       <c r="AP14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AX14" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -1469,8 +1565,14 @@
       <c r="AP15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AX15" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -1492,8 +1594,14 @@
       <c r="AP16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX16" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>4</v>
       </c>
@@ -1515,8 +1623,14 @@
       <c r="AP17" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -1538,8 +1652,14 @@
       <c r="AP18" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX18" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -1561,8 +1681,14 @@
       <c r="AP19" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX19" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -1584,8 +1710,14 @@
       <c r="AP20" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>2</v>
       </c>
@@ -1607,8 +1739,14 @@
       <c r="AP21" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX21" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -1630,8 +1768,14 @@
       <c r="AP22" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX22" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>6</v>
       </c>
@@ -1653,8 +1797,14 @@
       <c r="AP23" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX23" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>6</v>
       </c>
@@ -1676,8 +1826,14 @@
       <c r="AP24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX24" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>6</v>
       </c>
@@ -1699,8 +1855,14 @@
       <c r="AP25" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX25" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>6</v>
       </c>
@@ -1722,8 +1884,14 @@
       <c r="AP26" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="27" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX26" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>6</v>
       </c>
@@ -1745,8 +1913,14 @@
       <c r="AP27" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX27" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>6</v>
       </c>
@@ -1768,8 +1942,14 @@
       <c r="AP28" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="29" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX28" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>6</v>
       </c>
@@ -1791,8 +1971,14 @@
       <c r="AP29" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX29" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>6</v>
       </c>
@@ -1814,8 +2000,14 @@
       <c r="AP30" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX30" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>7</v>
       </c>
@@ -1837,8 +2029,14 @@
       <c r="AP31" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX31" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>6</v>
       </c>
@@ -1860,8 +2058,14 @@
       <c r="AP32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX32" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>6</v>
       </c>
@@ -1883,8 +2087,14 @@
       <c r="AP33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX33" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>7</v>
       </c>
@@ -1906,8 +2116,14 @@
       <c r="AP34" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX34" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>6</v>
       </c>
@@ -1929,8 +2145,14 @@
       <c r="AP35" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX35" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>6</v>
       </c>
@@ -1952,8 +2174,14 @@
       <c r="AP36" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="37" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX36" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>6</v>
       </c>
@@ -1975,8 +2203,14 @@
       <c r="AP37" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="38" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX37" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>6</v>
       </c>
@@ -1998,8 +2232,14 @@
       <c r="AP38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX38" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>6</v>
       </c>
@@ -2021,8 +2261,14 @@
       <c r="AP39" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="40" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX39" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>8</v>
       </c>
@@ -2044,8 +2290,14 @@
       <c r="AP40" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="41" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX40" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>6</v>
       </c>
@@ -2067,8 +2319,14 @@
       <c r="AP41" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX41" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>9</v>
       </c>
@@ -2090,8 +2348,14 @@
       <c r="AP42" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX42" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2113,8 +2377,14 @@
       <c r="AP43" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX43" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>11</v>
       </c>
@@ -2136,8 +2406,14 @@
       <c r="AP44" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX44" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>12</v>
       </c>
@@ -2159,8 +2435,14 @@
       <c r="AP45" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX45" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>12</v>
       </c>
@@ -2182,8 +2464,14 @@
       <c r="AP46" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX46" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>12</v>
       </c>
@@ -2205,8 +2493,14 @@
       <c r="AP47" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX47" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>13</v>
       </c>
@@ -2228,8 +2522,14 @@
       <c r="AP48" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="49" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX48" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>9</v>
       </c>
@@ -2251,8 +2551,14 @@
       <c r="AP49" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX49" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>13</v>
       </c>
@@ -2274,8 +2580,14 @@
       <c r="AP50" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX50" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>14</v>
       </c>
@@ -2297,8 +2609,14 @@
       <c r="AP51" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX51" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>10</v>
       </c>
@@ -2320,8 +2638,14 @@
       <c r="AP52" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX52" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2343,8 +2667,14 @@
       <c r="AP53" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="54" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX53" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>12</v>
       </c>
@@ -2366,8 +2696,14 @@
       <c r="AP54" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX54" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>15</v>
       </c>
@@ -2389,8 +2725,14 @@
       <c r="AP55" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX55" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>9</v>
       </c>
@@ -2412,8 +2754,14 @@
       <c r="AP56" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX56" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>12</v>
       </c>
@@ -2435,8 +2783,14 @@
       <c r="AP57" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX57" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>16</v>
       </c>
@@ -2458,8 +2812,14 @@
       <c r="AP58" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX58" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>14</v>
       </c>
@@ -2481,8 +2841,14 @@
       <c r="AP59" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX59" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>17</v>
       </c>
@@ -2504,8 +2870,14 @@
       <c r="AP60" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX60" t="s">
+        <v>17</v>
+      </c>
+      <c r="BB60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>11</v>
       </c>
@@ -2527,8 +2899,14 @@
       <c r="AP61" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="62" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX61" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>18</v>
       </c>
@@ -2550,8 +2928,14 @@
       <c r="AP62" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX62" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>19</v>
       </c>
@@ -2573,8 +2957,14 @@
       <c r="AP63" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="64" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX63" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>20</v>
       </c>
@@ -2596,8 +2986,14 @@
       <c r="AP64" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="65" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX64" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>21</v>
       </c>
@@ -2619,8 +3015,14 @@
       <c r="AP65" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="66" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX65" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>18</v>
       </c>
@@ -2642,8 +3044,14 @@
       <c r="AP66" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="67" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX66" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>20</v>
       </c>
@@ -2665,8 +3073,14 @@
       <c r="AP67" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="68" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX67" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>21</v>
       </c>
@@ -2688,8 +3102,14 @@
       <c r="AP68" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="69" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX68" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>20</v>
       </c>
@@ -2711,8 +3131,14 @@
       <c r="AP69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="70" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX69" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>22</v>
       </c>
@@ -2734,8 +3160,14 @@
       <c r="AP70" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="71" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX70" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>23</v>
       </c>
@@ -2757,8 +3189,14 @@
       <c r="AP71" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="72" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX71" t="s">
+        <v>23</v>
+      </c>
+      <c r="BB71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>20</v>
       </c>
@@ -2780,8 +3218,14 @@
       <c r="AP72" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX72" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>24</v>
       </c>
@@ -2803,8 +3247,14 @@
       <c r="AP73" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="74" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX73" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>22</v>
       </c>
@@ -2826,8 +3276,14 @@
       <c r="AP74" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="75" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX74" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>20</v>
       </c>
@@ -2849,8 +3305,14 @@
       <c r="AP75" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="76" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX75" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>22</v>
       </c>
@@ -2872,8 +3334,14 @@
       <c r="AP76" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="77" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX76" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>20</v>
       </c>
@@ -2895,8 +3363,14 @@
       <c r="AP77" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="78" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX77" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>25</v>
       </c>
@@ -2918,8 +3392,14 @@
       <c r="AP78" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="79" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX78" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>19</v>
       </c>
@@ -2941,8 +3421,14 @@
       <c r="AP79" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="80" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX79" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB79" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>25</v>
       </c>
@@ -2964,8 +3450,14 @@
       <c r="AP80" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="81" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX80" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>20</v>
       </c>
@@ -2987,8 +3479,14 @@
       <c r="AP81" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="82" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX81" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB81" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>26</v>
       </c>
@@ -3010,8 +3508,14 @@
       <c r="AP82" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="83" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX82" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>27</v>
       </c>
@@ -3033,8 +3537,14 @@
       <c r="AP83" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="84" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX83" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB83" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>27</v>
       </c>
@@ -3056,8 +3566,14 @@
       <c r="AP84" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="85" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX84" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB84" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>26</v>
       </c>
@@ -3079,8 +3595,14 @@
       <c r="AP85" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="86" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX85" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>26</v>
       </c>
@@ -3102,8 +3624,14 @@
       <c r="AP86" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="87" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX86" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB86" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>28</v>
       </c>
@@ -3125,8 +3653,14 @@
       <c r="AP87" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="88" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX87" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>29</v>
       </c>
@@ -3148,8 +3682,14 @@
       <c r="AP88" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="89" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX88" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>30</v>
       </c>
@@ -3171,8 +3711,14 @@
       <c r="AP89" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="90" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX89" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB89" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>28</v>
       </c>
@@ -3194,8 +3740,14 @@
       <c r="AP90" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="91" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX90" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>31</v>
       </c>
@@ -3217,8 +3769,14 @@
       <c r="AP91" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="92" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX91" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB91" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>26</v>
       </c>
@@ -3240,8 +3798,14 @@
       <c r="AP92" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="93" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX92" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>31</v>
       </c>
@@ -3263,8 +3827,14 @@
       <c r="AP93" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="94" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX93" t="s">
+        <v>71</v>
+      </c>
+      <c r="BB93" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>28</v>
       </c>
@@ -3286,8 +3856,14 @@
       <c r="AP94" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="95" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX94" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB94" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>26</v>
       </c>
@@ -3309,8 +3885,14 @@
       <c r="AP95" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="96" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX95" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB95" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>26</v>
       </c>
@@ -3332,8 +3914,14 @@
       <c r="AP96" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="97" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX96" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB96" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>29</v>
       </c>
@@ -3355,8 +3943,14 @@
       <c r="AP97" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="98" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX97" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB97" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>26</v>
       </c>
@@ -3378,8 +3972,14 @@
       <c r="AP98" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="99" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX98" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB98" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>26</v>
       </c>
@@ -3401,8 +4001,14 @@
       <c r="AP99" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="100" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX99" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB99" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>26</v>
       </c>
@@ -3424,8 +4030,14 @@
       <c r="AP100" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="101" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX100" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB100" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>29</v>
       </c>
@@ -3447,8 +4059,14 @@
       <c r="AP101" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="102" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX101" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB101" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="102" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>32</v>
       </c>
@@ -3470,8 +4088,14 @@
       <c r="AP102" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="103" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX102" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB102" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>32</v>
       </c>
@@ -3493,8 +4117,14 @@
       <c r="AP103" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="104" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX103" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB103" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>33</v>
       </c>
@@ -3516,8 +4146,14 @@
       <c r="AP104" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="105" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX104" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB104" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>32</v>
       </c>
@@ -3539,8 +4175,14 @@
       <c r="AP105" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="106" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX105" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB105" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>34</v>
       </c>
@@ -3562,8 +4204,14 @@
       <c r="AP106" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="107" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX106" t="s">
+        <v>101</v>
+      </c>
+      <c r="BB106" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>33</v>
       </c>
@@ -3585,8 +4233,14 @@
       <c r="AP107" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="108" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX107" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB107" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>33</v>
       </c>
@@ -3608,8 +4262,14 @@
       <c r="AP108" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="109" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX108" t="s">
+        <v>35</v>
+      </c>
+      <c r="BB108" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>35</v>
       </c>
@@ -3631,8 +4291,14 @@
       <c r="AP109" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="110" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX109" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB109" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>32</v>
       </c>
@@ -3654,8 +4320,14 @@
       <c r="AP110" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="111" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX110" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB110" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>35</v>
       </c>
@@ -3677,8 +4349,14 @@
       <c r="AP111" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="112" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX111" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB111" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>36</v>
       </c>
@@ -3700,8 +4378,14 @@
       <c r="AP112" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="113" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX112" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB112" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>32</v>
       </c>
@@ -3723,8 +4407,14 @@
       <c r="AP113" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="114" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX113" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB113" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>36</v>
       </c>
@@ -3746,8 +4436,14 @@
       <c r="AP114" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="115" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX114" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB114" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>37</v>
       </c>
@@ -3769,8 +4465,14 @@
       <c r="AP115" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="116" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX115" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB115" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>37</v>
       </c>
@@ -3792,8 +4494,14 @@
       <c r="AP116" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="117" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX116" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB116" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="117" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>33</v>
       </c>
@@ -3815,8 +4523,14 @@
       <c r="AP117" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="118" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX117" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB117" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>37</v>
       </c>
@@ -3838,8 +4552,14 @@
       <c r="AP118" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="119" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX118" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB118" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>35</v>
       </c>
@@ -3861,8 +4581,14 @@
       <c r="AP119" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="120" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX119" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB119" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>37</v>
       </c>
@@ -3884,8 +4610,14 @@
       <c r="AP120" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="121" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX120" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB120" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>33</v>
       </c>
@@ -3907,8 +4639,14 @@
       <c r="AP121" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="122" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX121" t="s">
+        <v>35</v>
+      </c>
+      <c r="BB121" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>38</v>
       </c>
@@ -3930,8 +4668,14 @@
       <c r="AP122" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="123" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX122" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB122" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="123" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>38</v>
       </c>
@@ -3953,8 +4697,14 @@
       <c r="AP123" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="124" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX123" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB123" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>38</v>
       </c>
@@ -3976,8 +4726,14 @@
       <c r="AP124" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="125" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX124" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB124" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>38</v>
       </c>
@@ -3999,8 +4755,14 @@
       <c r="AP125" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="126" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX125" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB125" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="126" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>38</v>
       </c>
@@ -4022,8 +4784,14 @@
       <c r="AP126" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="127" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX126" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB126" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>38</v>
       </c>
@@ -4045,8 +4813,14 @@
       <c r="AP127" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="128" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX127" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB127" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>38</v>
       </c>
@@ -4068,8 +4842,14 @@
       <c r="AP128" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="129" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX128" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB128" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="129" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>39</v>
       </c>
@@ -4091,8 +4871,14 @@
       <c r="AP129" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="130" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX129" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB129" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="130" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>38</v>
       </c>
@@ -4114,8 +4900,14 @@
       <c r="AP130" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="131" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX130" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB130" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>38</v>
       </c>
@@ -4137,8 +4929,14 @@
       <c r="AP131" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="132" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX131" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB131" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="132" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>38</v>
       </c>
@@ -4160,8 +4958,14 @@
       <c r="AP132" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="133" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX132" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB132" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>39</v>
       </c>
@@ -4183,8 +4987,14 @@
       <c r="AP133" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="134" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX133" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB133" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="134" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>40</v>
       </c>
@@ -4206,8 +5016,14 @@
       <c r="AP134" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="135" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX134" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB134" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>38</v>
       </c>
@@ -4229,8 +5045,14 @@
       <c r="AP135" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="136" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX135" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB135" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="136" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>38</v>
       </c>
@@ -4252,8 +5074,14 @@
       <c r="AP136" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="137" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX136" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB136" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="137" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>38</v>
       </c>
@@ -4275,8 +5103,14 @@
       <c r="AP137" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="138" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX137" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB137" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="138" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>41</v>
       </c>
@@ -4298,8 +5132,14 @@
       <c r="AP138" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="139" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX138" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB138" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="139" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>42</v>
       </c>
@@ -4321,8 +5161,14 @@
       <c r="AP139" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="140" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX139" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB139" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="140" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>38</v>
       </c>
@@ -4344,8 +5190,14 @@
       <c r="AP140" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="141" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX140" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB140" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="141" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>38</v>
       </c>
@@ -4367,8 +5219,14 @@
       <c r="AP141" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="142" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX141" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB141" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="142" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>43</v>
       </c>
@@ -4390,8 +5248,14 @@
       <c r="AP142" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="143" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX142" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB142" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="143" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>44</v>
       </c>
@@ -4413,8 +5277,14 @@
       <c r="AP143" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="144" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX143" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB143" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="144" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>45</v>
       </c>
@@ -4436,8 +5306,14 @@
       <c r="AP144" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="145" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX144" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB144" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="145" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>44</v>
       </c>
@@ -4459,8 +5335,14 @@
       <c r="AP145" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="146" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX145" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB145" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="146" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>44</v>
       </c>
@@ -4482,8 +5364,14 @@
       <c r="AP146" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="147" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX146" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB146" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="147" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>45</v>
       </c>
@@ -4505,8 +5393,14 @@
       <c r="AP147" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="148" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX147" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB147" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="148" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>44</v>
       </c>
@@ -4528,8 +5422,14 @@
       <c r="AP148" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="149" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX148" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB148" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="149" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>44</v>
       </c>
@@ -4551,8 +5451,14 @@
       <c r="AP149" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="150" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX149" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB149" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="150" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>44</v>
       </c>
@@ -4574,8 +5480,14 @@
       <c r="AP150" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="151" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX150" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB150" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="151" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>46</v>
       </c>
@@ -4597,8 +5509,14 @@
       <c r="AP151" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="152" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX151" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB151" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="152" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>44</v>
       </c>
@@ -4620,8 +5538,14 @@
       <c r="AP152" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="153" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX152" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB152" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="153" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>44</v>
       </c>
@@ -4643,8 +5567,14 @@
       <c r="AP153" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="154" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX153" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB153" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="154" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>47</v>
       </c>
@@ -4666,8 +5596,14 @@
       <c r="AP154" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="155" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX154" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB154" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="155" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>45</v>
       </c>
@@ -4689,8 +5625,14 @@
       <c r="AP155" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="156" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX155" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB155" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="156" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>47</v>
       </c>
@@ -4712,8 +5654,14 @@
       <c r="AP156" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="157" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX156" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB156" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="157" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>47</v>
       </c>
@@ -4735,8 +5683,14 @@
       <c r="AP157" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="158" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX157" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB157" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="158" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>47</v>
       </c>
@@ -4758,8 +5712,14 @@
       <c r="AP158" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="159" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX158" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB158" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="159" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>44</v>
       </c>
@@ -4781,8 +5741,14 @@
       <c r="AP159" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="160" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX159" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB159" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="160" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>45</v>
       </c>
@@ -4804,8 +5770,14 @@
       <c r="AP160" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="161" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX160" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB160" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="161" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>44</v>
       </c>
@@ -4827,8 +5799,14 @@
       <c r="AP161" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="162" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX161" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB161" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="162" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>48</v>
       </c>
@@ -4850,8 +5828,14 @@
       <c r="AP162" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="163" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX162" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB162" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="163" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>49</v>
       </c>
@@ -4873,8 +5857,14 @@
       <c r="AP163" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="164" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX163" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB163" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="164" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>50</v>
       </c>
@@ -4896,8 +5886,14 @@
       <c r="AP164" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="165" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX164" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB164" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="165" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>51</v>
       </c>
@@ -4919,8 +5915,14 @@
       <c r="AP165" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="166" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX165" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB165" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>50</v>
       </c>
@@ -4942,8 +5944,14 @@
       <c r="AP166" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="167" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX166" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB166" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="167" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>51</v>
       </c>
@@ -4965,8 +5973,14 @@
       <c r="AP167" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="168" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX167" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB167" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="168" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>48</v>
       </c>
@@ -4988,8 +6002,14 @@
       <c r="AP168" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="169" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX168" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB168" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>50</v>
       </c>
@@ -5011,8 +6031,14 @@
       <c r="AP169" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="170" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX169" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB169" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>50</v>
       </c>
@@ -5034,8 +6060,14 @@
       <c r="AP170" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="171" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX170" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB170" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="171" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>50</v>
       </c>
@@ -5057,8 +6089,14 @@
       <c r="AP171" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="172" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX171" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB171" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="172" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>50</v>
       </c>
@@ -5080,8 +6118,14 @@
       <c r="AP172" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="173" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX172" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB172" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="173" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>50</v>
       </c>
@@ -5103,8 +6147,14 @@
       <c r="AP173" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="174" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX173" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB173" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="174" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>50</v>
       </c>
@@ -5126,8 +6176,14 @@
       <c r="AP174" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="175" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX174" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB174" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>52</v>
       </c>
@@ -5149,8 +6205,14 @@
       <c r="AP175" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="176" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX175" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB175" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="176" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>52</v>
       </c>
@@ -5172,8 +6234,14 @@
       <c r="AP176" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="177" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX176" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB176" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="177" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>50</v>
       </c>
@@ -5195,8 +6263,14 @@
       <c r="AP177" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="178" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX177" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB177" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="178" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>50</v>
       </c>
@@ -5218,8 +6292,14 @@
       <c r="AP178" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="179" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX178" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB178" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="179" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>51</v>
       </c>
@@ -5241,8 +6321,14 @@
       <c r="AP179" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="180" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX179" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB179" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="180" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>50</v>
       </c>
@@ -5264,8 +6350,14 @@
       <c r="AP180" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="181" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX180" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB180" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="181" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>51</v>
       </c>
@@ -5287,8 +6379,14 @@
       <c r="AP181" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="182" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX181" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB181" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="182" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>53</v>
       </c>
@@ -5310,8 +6408,14 @@
       <c r="AP182" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="183" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX182" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB182" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="183" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>54</v>
       </c>
@@ -5333,8 +6437,14 @@
       <c r="AP183" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="184" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX183" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB183" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="184" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>55</v>
       </c>
@@ -5356,8 +6466,14 @@
       <c r="AP184" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="185" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX184" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB184" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="185" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>56</v>
       </c>
@@ -5379,8 +6495,14 @@
       <c r="AP185" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="186" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX185" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB185" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="186" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>56</v>
       </c>
@@ -5402,8 +6524,14 @@
       <c r="AP186" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="187" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX186" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB186" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="187" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>57</v>
       </c>
@@ -5425,8 +6553,14 @@
       <c r="AP187" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="188" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX187" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB187" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="188" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>54</v>
       </c>
@@ -5448,8 +6582,14 @@
       <c r="AP188" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="189" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX188" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB188" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="189" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>57</v>
       </c>
@@ -5471,8 +6611,14 @@
       <c r="AP189" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="190" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX189" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB189" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="190" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>58</v>
       </c>
@@ -5494,8 +6640,14 @@
       <c r="AP190" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="191" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX190" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB190" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="191" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>59</v>
       </c>
@@ -5517,8 +6669,14 @@
       <c r="AP191" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="192" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX191" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB191" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="192" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>57</v>
       </c>
@@ -5540,8 +6698,14 @@
       <c r="AP192" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="193" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX192" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB192" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="193" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>56</v>
       </c>
@@ -5563,8 +6727,14 @@
       <c r="AP193" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="194" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX193" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB193" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="194" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>57</v>
       </c>
@@ -5586,8 +6756,14 @@
       <c r="AP194" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="195" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX194" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB194" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="195" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>57</v>
       </c>
@@ -5609,8 +6785,14 @@
       <c r="AP195" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="196" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX195" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB195" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="196" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>55</v>
       </c>
@@ -5632,8 +6814,14 @@
       <c r="AP196" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="197" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX196" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB196" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="197" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>60</v>
       </c>
@@ -5655,8 +6843,14 @@
       <c r="AP197" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="198" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX197" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB197" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="198" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>61</v>
       </c>
@@ -5678,8 +6872,14 @@
       <c r="AP198" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="199" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX198" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB198" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="199" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>53</v>
       </c>
@@ -5701,8 +6901,14 @@
       <c r="AP199" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="200" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX199" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB199" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="200" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>56</v>
       </c>
@@ -5724,8 +6930,14 @@
       <c r="AP200" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="201" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX200" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB200" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="201" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>53</v>
       </c>
@@ -5747,8 +6959,14 @@
       <c r="AP201" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="202" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AX201" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB201" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="202" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>62</v>
       </c>
@@ -5769,6 +6987,12 @@
       </c>
       <c r="AP202" t="s">
         <v>112</v>
+      </c>
+      <c r="AX202" t="s">
+        <v>115</v>
+      </c>
+      <c r="BB202" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/report/data.xlsx
+++ b/report/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="120">
   <si>
     <t>blues ['country']</t>
   </si>
@@ -739,6 +739,9 @@
   </si>
   <si>
     <t>train_model_minkowski4_new_features</t>
+  </si>
+  <si>
+    <t>chebyshev</t>
   </si>
 </sst>
 </file>
@@ -1088,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BB202"/>
+  <dimension ref="B1:BF202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BB1" sqref="BB1"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BE16" sqref="BE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1101,7 +1104,7 @@
     <col min="39" max="39" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
@@ -1132,8 +1135,11 @@
       <c r="BB1" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1164,8 +1170,11 @@
       <c r="BB2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1202,8 +1211,11 @@
       <c r="BB3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1240,8 +1252,11 @@
       <c r="BB4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -1275,8 +1290,11 @@
       <c r="BB5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -1310,8 +1328,11 @@
       <c r="BB6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -1339,8 +1360,11 @@
       <c r="BB7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -1368,8 +1392,11 @@
       <c r="BB8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -1397,8 +1424,11 @@
       <c r="BB9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -1426,8 +1456,11 @@
       <c r="BB10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -1455,8 +1488,11 @@
       <c r="BB11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>1</v>
       </c>
@@ -1484,8 +1520,11 @@
       <c r="BB12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -1513,8 +1552,11 @@
       <c r="BB13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -1542,8 +1584,11 @@
       <c r="BB14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -1571,8 +1616,11 @@
       <c r="BB15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -1600,8 +1648,11 @@
       <c r="BB16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>4</v>
       </c>
@@ -1629,8 +1680,11 @@
       <c r="BB17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -1658,8 +1712,11 @@
       <c r="BB18" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -1687,8 +1744,11 @@
       <c r="BB19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -1716,8 +1776,11 @@
       <c r="BB20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>2</v>
       </c>
@@ -1745,8 +1808,11 @@
       <c r="BB21" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -1774,8 +1840,11 @@
       <c r="BB22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>6</v>
       </c>
@@ -1803,8 +1872,11 @@
       <c r="BB23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>6</v>
       </c>
@@ -1832,8 +1904,11 @@
       <c r="BB24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>6</v>
       </c>
@@ -1861,8 +1936,11 @@
       <c r="BB25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>6</v>
       </c>
@@ -1890,8 +1968,11 @@
       <c r="BB26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>6</v>
       </c>
@@ -1919,8 +2000,11 @@
       <c r="BB27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>6</v>
       </c>
@@ -1948,8 +2032,11 @@
       <c r="BB28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>6</v>
       </c>
@@ -1977,8 +2064,11 @@
       <c r="BB29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>6</v>
       </c>
@@ -2006,8 +2096,11 @@
       <c r="BB30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>7</v>
       </c>
@@ -2035,8 +2128,11 @@
       <c r="BB31" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>6</v>
       </c>
@@ -2064,8 +2160,11 @@
       <c r="BB32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>6</v>
       </c>
@@ -2093,8 +2192,11 @@
       <c r="BB33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>7</v>
       </c>
@@ -2122,8 +2224,11 @@
       <c r="BB34" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>6</v>
       </c>
@@ -2151,8 +2256,11 @@
       <c r="BB35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>6</v>
       </c>
@@ -2180,8 +2288,11 @@
       <c r="BB36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>6</v>
       </c>
@@ -2209,8 +2320,11 @@
       <c r="BB37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>6</v>
       </c>
@@ -2238,8 +2352,11 @@
       <c r="BB38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>6</v>
       </c>
@@ -2267,8 +2384,11 @@
       <c r="BB39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>8</v>
       </c>
@@ -2296,8 +2416,11 @@
       <c r="BB40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>6</v>
       </c>
@@ -2325,8 +2448,11 @@
       <c r="BB41" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>9</v>
       </c>
@@ -2354,8 +2480,11 @@
       <c r="BB42" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2383,8 +2512,11 @@
       <c r="BB43" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>11</v>
       </c>
@@ -2412,8 +2544,11 @@
       <c r="BB44" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>12</v>
       </c>
@@ -2441,8 +2576,11 @@
       <c r="BB45" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>12</v>
       </c>
@@ -2470,8 +2608,11 @@
       <c r="BB46" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>12</v>
       </c>
@@ -2499,8 +2640,11 @@
       <c r="BB47" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>13</v>
       </c>
@@ -2528,8 +2672,11 @@
       <c r="BB48" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>9</v>
       </c>
@@ -2557,8 +2704,11 @@
       <c r="BB49" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>13</v>
       </c>
@@ -2586,8 +2736,11 @@
       <c r="BB50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>14</v>
       </c>
@@ -2615,8 +2768,11 @@
       <c r="BB51" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>10</v>
       </c>
@@ -2644,8 +2800,11 @@
       <c r="BB52" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2673,8 +2832,11 @@
       <c r="BB53" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>12</v>
       </c>
@@ -2702,8 +2864,11 @@
       <c r="BB54" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>15</v>
       </c>
@@ -2731,8 +2896,11 @@
       <c r="BB55" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>9</v>
       </c>
@@ -2760,8 +2928,11 @@
       <c r="BB56" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>12</v>
       </c>
@@ -2789,8 +2960,11 @@
       <c r="BB57" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>16</v>
       </c>
@@ -2818,8 +2992,11 @@
       <c r="BB58" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>14</v>
       </c>
@@ -2847,8 +3024,11 @@
       <c r="BB59" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>17</v>
       </c>
@@ -2876,8 +3056,11 @@
       <c r="BB60" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>11</v>
       </c>
@@ -2905,8 +3088,11 @@
       <c r="BB61" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>18</v>
       </c>
@@ -2934,8 +3120,11 @@
       <c r="BB62" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>19</v>
       </c>
@@ -2963,8 +3152,11 @@
       <c r="BB63" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>20</v>
       </c>
@@ -2992,8 +3184,11 @@
       <c r="BB64" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>21</v>
       </c>
@@ -3021,8 +3216,11 @@
       <c r="BB65" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>18</v>
       </c>
@@ -3050,8 +3248,11 @@
       <c r="BB66" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>20</v>
       </c>
@@ -3079,8 +3280,11 @@
       <c r="BB67" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>21</v>
       </c>
@@ -3108,8 +3312,11 @@
       <c r="BB68" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>20</v>
       </c>
@@ -3137,8 +3344,11 @@
       <c r="BB69" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>22</v>
       </c>
@@ -3166,8 +3376,11 @@
       <c r="BB70" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>23</v>
       </c>
@@ -3195,8 +3408,11 @@
       <c r="BB71" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>20</v>
       </c>
@@ -3224,8 +3440,11 @@
       <c r="BB72" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>24</v>
       </c>
@@ -3253,8 +3472,11 @@
       <c r="BB73" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>22</v>
       </c>
@@ -3282,8 +3504,11 @@
       <c r="BB74" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>20</v>
       </c>
@@ -3311,8 +3536,11 @@
       <c r="BB75" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>22</v>
       </c>
@@ -3340,8 +3568,11 @@
       <c r="BB76" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>20</v>
       </c>
@@ -3369,8 +3600,11 @@
       <c r="BB77" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF77" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>25</v>
       </c>
@@ -3398,8 +3632,11 @@
       <c r="BB78" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>19</v>
       </c>
@@ -3427,8 +3664,11 @@
       <c r="BB79" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF79" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>25</v>
       </c>
@@ -3456,8 +3696,11 @@
       <c r="BB80" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>20</v>
       </c>
@@ -3485,8 +3728,11 @@
       <c r="BB81" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF81" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>26</v>
       </c>
@@ -3514,8 +3760,11 @@
       <c r="BB82" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>27</v>
       </c>
@@ -3543,8 +3792,11 @@
       <c r="BB83" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF83" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>27</v>
       </c>
@@ -3572,8 +3824,11 @@
       <c r="BB84" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF84" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>26</v>
       </c>
@@ -3601,8 +3856,11 @@
       <c r="BB85" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>26</v>
       </c>
@@ -3630,8 +3888,11 @@
       <c r="BB86" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF86" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>28</v>
       </c>
@@ -3659,8 +3920,11 @@
       <c r="BB87" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF87" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>29</v>
       </c>
@@ -3688,8 +3952,11 @@
       <c r="BB88" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>30</v>
       </c>
@@ -3717,8 +3984,11 @@
       <c r="BB89" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF89" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>28</v>
       </c>
@@ -3746,8 +4016,11 @@
       <c r="BB90" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF90" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>31</v>
       </c>
@@ -3775,8 +4048,11 @@
       <c r="BB91" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF91" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>26</v>
       </c>
@@ -3804,8 +4080,11 @@
       <c r="BB92" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>31</v>
       </c>
@@ -3833,8 +4112,11 @@
       <c r="BB93" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF93" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>28</v>
       </c>
@@ -3862,8 +4144,11 @@
       <c r="BB94" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF94" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>26</v>
       </c>
@@ -3891,8 +4176,11 @@
       <c r="BB95" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF95" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>26</v>
       </c>
@@ -3920,8 +4208,11 @@
       <c r="BB96" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF96" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>29</v>
       </c>
@@ -3949,8 +4240,11 @@
       <c r="BB97" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF97" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>26</v>
       </c>
@@ -3978,8 +4272,11 @@
       <c r="BB98" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF98" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>26</v>
       </c>
@@ -4007,8 +4304,11 @@
       <c r="BB99" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF99" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>26</v>
       </c>
@@ -4036,8 +4336,11 @@
       <c r="BB100" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF100" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>29</v>
       </c>
@@ -4065,8 +4368,11 @@
       <c r="BB101" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF101" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="102" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>32</v>
       </c>
@@ -4094,8 +4400,11 @@
       <c r="BB102" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF102" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>32</v>
       </c>
@@ -4123,8 +4432,11 @@
       <c r="BB103" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF103" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>33</v>
       </c>
@@ -4152,8 +4464,11 @@
       <c r="BB104" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF104" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>32</v>
       </c>
@@ -4181,8 +4496,11 @@
       <c r="BB105" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF105" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>34</v>
       </c>
@@ -4210,8 +4528,11 @@
       <c r="BB106" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF106" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>33</v>
       </c>
@@ -4239,8 +4560,11 @@
       <c r="BB107" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF107" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>33</v>
       </c>
@@ -4268,8 +4592,11 @@
       <c r="BB108" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF108" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>35</v>
       </c>
@@ -4297,8 +4624,11 @@
       <c r="BB109" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="110" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF109" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>32</v>
       </c>
@@ -4326,8 +4656,11 @@
       <c r="BB110" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="111" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF110" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>35</v>
       </c>
@@ -4355,8 +4688,11 @@
       <c r="BB111" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="112" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF111" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>36</v>
       </c>
@@ -4384,8 +4720,11 @@
       <c r="BB112" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="113" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF112" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>32</v>
       </c>
@@ -4413,8 +4752,11 @@
       <c r="BB113" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="114" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF113" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>36</v>
       </c>
@@ -4442,8 +4784,11 @@
       <c r="BB114" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="115" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF114" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>37</v>
       </c>
@@ -4471,8 +4816,11 @@
       <c r="BB115" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="116" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF115" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>37</v>
       </c>
@@ -4500,8 +4848,11 @@
       <c r="BB116" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="117" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF116" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>33</v>
       </c>
@@ -4529,8 +4880,11 @@
       <c r="BB117" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="118" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF117" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="118" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>37</v>
       </c>
@@ -4558,8 +4912,11 @@
       <c r="BB118" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="119" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF118" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>35</v>
       </c>
@@ -4587,8 +4944,11 @@
       <c r="BB119" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="120" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF119" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>37</v>
       </c>
@@ -4616,8 +4976,11 @@
       <c r="BB120" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="121" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF120" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>33</v>
       </c>
@@ -4645,8 +5008,11 @@
       <c r="BB121" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="122" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF121" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>38</v>
       </c>
@@ -4674,8 +5040,11 @@
       <c r="BB122" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="123" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF122" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>38</v>
       </c>
@@ -4703,8 +5072,11 @@
       <c r="BB123" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="124" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF123" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>38</v>
       </c>
@@ -4732,8 +5104,11 @@
       <c r="BB124" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="125" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF124" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>38</v>
       </c>
@@ -4761,8 +5136,11 @@
       <c r="BB125" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="126" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF125" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="126" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>38</v>
       </c>
@@ -4790,8 +5168,11 @@
       <c r="BB126" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="127" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF126" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>38</v>
       </c>
@@ -4819,8 +5200,11 @@
       <c r="BB127" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="128" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF127" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="128" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>38</v>
       </c>
@@ -4848,8 +5232,11 @@
       <c r="BB128" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="129" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF128" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>39</v>
       </c>
@@ -4877,8 +5264,11 @@
       <c r="BB129" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="130" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF129" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="130" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>38</v>
       </c>
@@ -4906,8 +5296,11 @@
       <c r="BB130" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="131" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF130" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>38</v>
       </c>
@@ -4935,8 +5328,11 @@
       <c r="BB131" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="132" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF131" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="132" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>38</v>
       </c>
@@ -4964,8 +5360,11 @@
       <c r="BB132" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="133" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF132" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="133" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>39</v>
       </c>
@@ -4993,8 +5392,11 @@
       <c r="BB133" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="134" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF133" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="134" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>40</v>
       </c>
@@ -5022,8 +5424,11 @@
       <c r="BB134" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="135" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF134" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>38</v>
       </c>
@@ -5051,8 +5456,11 @@
       <c r="BB135" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="136" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF135" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="136" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>38</v>
       </c>
@@ -5080,8 +5488,11 @@
       <c r="BB136" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="137" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF136" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="137" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>38</v>
       </c>
@@ -5109,8 +5520,11 @@
       <c r="BB137" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="138" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF137" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="138" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>41</v>
       </c>
@@ -5138,8 +5552,11 @@
       <c r="BB138" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="139" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF138" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="139" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>42</v>
       </c>
@@ -5167,8 +5584,11 @@
       <c r="BB139" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="140" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF139" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="140" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>38</v>
       </c>
@@ -5196,8 +5616,11 @@
       <c r="BB140" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="141" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF140" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="141" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>38</v>
       </c>
@@ -5225,8 +5648,11 @@
       <c r="BB141" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="142" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF141" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="142" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>43</v>
       </c>
@@ -5254,8 +5680,11 @@
       <c r="BB142" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="143" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF142" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="143" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>44</v>
       </c>
@@ -5283,8 +5712,11 @@
       <c r="BB143" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="144" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF143" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="144" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>45</v>
       </c>
@@ -5312,8 +5744,11 @@
       <c r="BB144" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="145" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF144" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="145" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>44</v>
       </c>
@@ -5341,8 +5776,11 @@
       <c r="BB145" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="146" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF145" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="146" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>44</v>
       </c>
@@ -5370,8 +5808,11 @@
       <c r="BB146" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="147" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF146" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="147" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>45</v>
       </c>
@@ -5399,8 +5840,11 @@
       <c r="BB147" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="148" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF147" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="148" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>44</v>
       </c>
@@ -5428,8 +5872,11 @@
       <c r="BB148" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="149" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF148" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="149" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>44</v>
       </c>
@@ -5457,8 +5904,11 @@
       <c r="BB149" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="150" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF149" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="150" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>44</v>
       </c>
@@ -5486,8 +5936,11 @@
       <c r="BB150" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="151" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF150" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="151" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>46</v>
       </c>
@@ -5515,8 +5968,11 @@
       <c r="BB151" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="152" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF151" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="152" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>44</v>
       </c>
@@ -5544,8 +6000,11 @@
       <c r="BB152" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="153" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF152" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="153" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>44</v>
       </c>
@@ -5573,8 +6032,11 @@
       <c r="BB153" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="154" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF153" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="154" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>47</v>
       </c>
@@ -5602,8 +6064,11 @@
       <c r="BB154" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="155" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF154" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="155" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>45</v>
       </c>
@@ -5631,8 +6096,11 @@
       <c r="BB155" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="156" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF155" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="156" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>47</v>
       </c>
@@ -5660,8 +6128,11 @@
       <c r="BB156" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="157" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF156" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="157" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>47</v>
       </c>
@@ -5689,8 +6160,11 @@
       <c r="BB157" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="158" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF157" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="158" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>47</v>
       </c>
@@ -5718,8 +6192,11 @@
       <c r="BB158" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="159" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF158" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="159" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>44</v>
       </c>
@@ -5747,8 +6224,11 @@
       <c r="BB159" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="160" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF159" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="160" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>45</v>
       </c>
@@ -5776,8 +6256,11 @@
       <c r="BB160" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="161" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF160" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>44</v>
       </c>
@@ -5805,8 +6288,11 @@
       <c r="BB161" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="162" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF161" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="162" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>48</v>
       </c>
@@ -5834,8 +6320,11 @@
       <c r="BB162" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="163" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF162" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="163" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>49</v>
       </c>
@@ -5863,8 +6352,11 @@
       <c r="BB163" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="164" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF163" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="164" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>50</v>
       </c>
@@ -5892,8 +6384,11 @@
       <c r="BB164" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="165" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF164" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="165" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>51</v>
       </c>
@@ -5921,8 +6416,11 @@
       <c r="BB165" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="166" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF165" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>50</v>
       </c>
@@ -5950,8 +6448,11 @@
       <c r="BB166" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="167" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF166" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="167" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>51</v>
       </c>
@@ -5979,8 +6480,11 @@
       <c r="BB167" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="168" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF167" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="168" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>48</v>
       </c>
@@ -6008,8 +6512,11 @@
       <c r="BB168" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="169" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF168" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>50</v>
       </c>
@@ -6037,8 +6544,11 @@
       <c r="BB169" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="170" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF169" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="170" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>50</v>
       </c>
@@ -6066,8 +6576,11 @@
       <c r="BB170" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="171" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF170" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="171" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>50</v>
       </c>
@@ -6095,8 +6608,11 @@
       <c r="BB171" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="172" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF171" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="172" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>50</v>
       </c>
@@ -6124,8 +6640,11 @@
       <c r="BB172" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="173" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF172" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="173" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>50</v>
       </c>
@@ -6153,8 +6672,11 @@
       <c r="BB173" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="174" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF173" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="174" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>50</v>
       </c>
@@ -6182,8 +6704,11 @@
       <c r="BB174" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="175" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF174" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>52</v>
       </c>
@@ -6211,8 +6736,11 @@
       <c r="BB175" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="176" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF175" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="176" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>52</v>
       </c>
@@ -6240,8 +6768,11 @@
       <c r="BB176" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="177" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF176" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="177" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>50</v>
       </c>
@@ -6269,8 +6800,11 @@
       <c r="BB177" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="178" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF177" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="178" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>50</v>
       </c>
@@ -6298,8 +6832,11 @@
       <c r="BB178" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="179" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF178" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="179" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>51</v>
       </c>
@@ -6327,8 +6864,11 @@
       <c r="BB179" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="180" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF179" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="180" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>50</v>
       </c>
@@ -6356,8 +6896,11 @@
       <c r="BB180" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="181" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF180" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="181" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>51</v>
       </c>
@@ -6385,8 +6928,11 @@
       <c r="BB181" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="182" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF181" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="182" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>53</v>
       </c>
@@ -6414,8 +6960,11 @@
       <c r="BB182" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="183" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF182" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="183" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>54</v>
       </c>
@@ -6443,8 +6992,11 @@
       <c r="BB183" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="184" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF183" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="184" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>55</v>
       </c>
@@ -6472,8 +7024,11 @@
       <c r="BB184" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="185" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF184" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="185" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>56</v>
       </c>
@@ -6501,8 +7056,11 @@
       <c r="BB185" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="186" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF185" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="186" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>56</v>
       </c>
@@ -6530,8 +7088,11 @@
       <c r="BB186" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="187" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF186" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="187" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>57</v>
       </c>
@@ -6559,8 +7120,11 @@
       <c r="BB187" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="188" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF187" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="188" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>54</v>
       </c>
@@ -6588,8 +7152,11 @@
       <c r="BB188" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="189" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF188" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="189" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>57</v>
       </c>
@@ -6617,8 +7184,11 @@
       <c r="BB189" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="190" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF189" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="190" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>58</v>
       </c>
@@ -6646,8 +7216,11 @@
       <c r="BB190" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="191" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF190" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="191" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>59</v>
       </c>
@@ -6675,8 +7248,11 @@
       <c r="BB191" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="192" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF191" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="192" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>57</v>
       </c>
@@ -6704,8 +7280,11 @@
       <c r="BB192" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="193" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF192" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="193" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>56</v>
       </c>
@@ -6733,8 +7312,11 @@
       <c r="BB193" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="194" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF193" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="194" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>57</v>
       </c>
@@ -6762,8 +7344,11 @@
       <c r="BB194" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="195" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF194" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="195" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>57</v>
       </c>
@@ -6791,8 +7376,11 @@
       <c r="BB195" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="196" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF195" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="196" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>55</v>
       </c>
@@ -6820,8 +7408,11 @@
       <c r="BB196" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="197" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF196" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="197" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>60</v>
       </c>
@@ -6849,8 +7440,11 @@
       <c r="BB197" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="198" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF197" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="198" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>61</v>
       </c>
@@ -6878,8 +7472,11 @@
       <c r="BB198" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="199" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF198" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="199" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>53</v>
       </c>
@@ -6907,8 +7504,11 @@
       <c r="BB199" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="200" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF199" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="200" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>56</v>
       </c>
@@ -6936,8 +7536,11 @@
       <c r="BB200" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="201" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF200" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="201" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>53</v>
       </c>
@@ -6965,8 +7568,11 @@
       <c r="BB201" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="202" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="BF201" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="202" spans="2:58" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>62</v>
       </c>
@@ -6993,6 +7599,9 @@
       </c>
       <c r="BB202" t="s">
         <v>117</v>
+      </c>
+      <c r="BF202" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/report/data.xlsx
+++ b/report/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="178">
   <si>
     <t>blues ['country']</t>
   </si>
@@ -742,13 +742,2117 @@
   </si>
   <si>
     <t>chebyshev</t>
+  </si>
+  <si>
+    <t>tuned_parameters = [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>'n_neighbors'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>'weights'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"uniform"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"distance"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">"metric" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"euclidean"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"manhattan"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"chebyshev"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    },</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>'n_neighbors'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">"algorithm" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"ball_tree"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">"kd_tree" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"brute"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"leaf_size"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"metric"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"euclidean"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"manhattan"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"chebyshev"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"algorithm"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"ball_tree"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"kd_tree"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"brute"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"leaf_size"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"metric"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"minkowski"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"p"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t># clf = KNeighborsClassifier(n_neighbors=7, metric="chebyshev")</t>
+  </si>
+  <si>
+    <t>clf = GridSearchCV(KNeighborsClassifier(), tuned_parameters)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='manhattan',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           metric_params=None, n_jobs=1, n_neighbors=3, p=2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           weights='uniform')</t>
+  </si>
+  <si>
+    <t>{'weights': 'uniform', 'n_neighbors': 3, 'metric': 'manhattan'}</t>
+  </si>
+  <si>
+    <t>0.355444305382</t>
+  </si>
+  <si>
+    <t>SVC(C=4, cache_size=200, class_weight=None, coef0=0.0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  decision_function_shape=None, degree=3, gamma='auto', kernel='linear',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  max_iter=-1, probability=False, random_state=None, shrinking=True,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  tol=0.001, verbose=False)</t>
+  </si>
+  <si>
+    <t>{'C': 4, 'kernel': 'linear'}</t>
+  </si>
+  <si>
+    <t>0.38155966603</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"C"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"kernel"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"linear"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>}]</t>
+  </si>
+  <si>
+    <t>SVC(C=0.1, cache_size=200, class_weight=None, coef0=16,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  decision_function_shape=None, degree=2, gamma='auto', kernel='poly',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  max_iter=-1, probability=True, random_state=None, shrinking=True,</t>
+  </si>
+  <si>
+    <t>{'coef0': 16, 'kernel': 'poly', 'probability': True, 'C': 0.1, 'degree': 2}</t>
+  </si>
+  <si>
+    <t>0.389093831869</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"C"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"kernel"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"poly"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"degree"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"coef0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>0.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>0.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>0.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>0.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>0.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>1.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"probability"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <t>SVC(C=0.1, cache_size=200, class_weight=None, coef0=0.0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  decision_function_shape=None, degree=3, gamma='auto', kernel='sigmoid',</t>
+  </si>
+  <si>
+    <t>{'probability': True, 'kernel': 'sigmoid', 'C': 0.1}</t>
+  </si>
+  <si>
+    <t>0.100125156446</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"kernel"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"sigmoid"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <t>SVC(C=2, cache_size=200, class_weight=None, coef0=0.0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  decision_function_shape=None, degree=3, gamma='auto', kernel='rbf',</t>
+  </si>
+  <si>
+    <t>{'probability': True, 'C': 2, 'kernel': 'rbf'}</t>
+  </si>
+  <si>
+    <t>0.126408010013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"C"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"kernel"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"rbf"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"probability"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <t>accuracy:  0.53</t>
+  </si>
+  <si>
+    <r>
+      <t>clf = svm.SVC(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660099"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660099"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>kernel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"linear"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -788,6 +2892,28 @@
       <color rgb="FF660099"/>
       <name val="Menlo"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -806,17 +2932,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hypertextový odkaz" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Použitý hypertextový odkaz" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Použitý hypertextový odkaz" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1091,10 +3226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BF202"/>
+  <dimension ref="B1:CC202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="BE16" sqref="BE16"/>
+    <sheetView tabSelected="1" topLeftCell="BO180" workbookViewId="0">
+      <selection activeCell="CA9" sqref="CA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1104,7 +3239,7 @@
     <col min="39" max="39" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:58" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
@@ -1138,8 +3273,11 @@
       <c r="BF1" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="2" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC1" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1173,8 +3311,14 @@
       <c r="BF2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1214,8 +3358,14 @@
       <c r="BF3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1255,8 +3405,17 @@
       <c r="BF4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -1293,8 +3452,17 @@
       <c r="BF5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -1331,8 +3499,17 @@
       <c r="BF6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BU6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -1363,8 +3540,17 @@
       <c r="BF7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -1395,8 +3581,14 @@
       <c r="BF8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -1427,8 +3619,14 @@
       <c r="BF9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -1459,8 +3657,17 @@
       <c r="BF10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>143</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -1491,8 +3698,17 @@
       <c r="BF11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>144</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>1</v>
       </c>
@@ -1523,8 +3739,17 @@
       <c r="BF12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>145</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -1555,8 +3780,17 @@
       <c r="BF13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>146</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -1587,8 +3821,17 @@
       <c r="BF14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>147</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -1619,8 +3862,17 @@
       <c r="BF15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>148</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -1651,8 +3903,14 @@
       <c r="BF16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>4</v>
       </c>
@@ -1683,8 +3941,14 @@
       <c r="BF17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CC17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -1715,8 +3979,14 @@
       <c r="BF18" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="CC18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -1747,8 +4017,14 @@
       <c r="BF19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="CC19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -1779,8 +4055,17 @@
       <c r="BF20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL20" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="BU20" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="CC20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>2</v>
       </c>
@@ -1811,8 +4096,17 @@
       <c r="BF21" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL21" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BU21" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="CC21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -1843,8 +4137,17 @@
       <c r="BF22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BU22" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="CC22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>6</v>
       </c>
@@ -1875,8 +4178,17 @@
       <c r="BF23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="BU23" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="CC23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>6</v>
       </c>
@@ -1907,8 +4219,14 @@
       <c r="BF24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU24" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="CC24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>6</v>
       </c>
@@ -1939,8 +4257,14 @@
       <c r="BF25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU25" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="CC25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>6</v>
       </c>
@@ -1971,8 +4295,17 @@
       <c r="BF26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL26" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="BU26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="CC26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>6</v>
       </c>
@@ -2003,8 +4336,14 @@
       <c r="BF27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU27" t="s">
+        <v>153</v>
+      </c>
+      <c r="CC27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>6</v>
       </c>
@@ -2035,8 +4374,17 @@
       <c r="BF28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BU28" t="s">
+        <v>154</v>
+      </c>
+      <c r="CC28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>6</v>
       </c>
@@ -2067,8 +4415,14 @@
       <c r="BF29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU29" t="s">
+        <v>155</v>
+      </c>
+      <c r="CC29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>6</v>
       </c>
@@ -2099,8 +4453,14 @@
       <c r="BF30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU30" t="s">
+        <v>146</v>
+      </c>
+      <c r="CC30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>7</v>
       </c>
@@ -2131,8 +4491,17 @@
       <c r="BF31" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL31" t="s">
+        <v>138</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>156</v>
+      </c>
+      <c r="CC31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>6</v>
       </c>
@@ -2163,8 +4532,17 @@
       <c r="BF32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL32" t="s">
+        <v>139</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>157</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>6</v>
       </c>
@@ -2195,8 +4573,14 @@
       <c r="BF33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL33" t="s">
+        <v>140</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>7</v>
       </c>
@@ -2227,8 +4611,14 @@
       <c r="BF34" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL34" t="s">
+        <v>141</v>
+      </c>
+      <c r="CC34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>6</v>
       </c>
@@ -2259,8 +4649,14 @@
       <c r="BF35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BL35" t="s">
+        <v>142</v>
+      </c>
+      <c r="CC35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>6</v>
       </c>
@@ -2291,8 +4687,14 @@
       <c r="BF36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU36" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="CC36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>6</v>
       </c>
@@ -2323,8 +4725,14 @@
       <c r="BF37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU37" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="CC37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>6</v>
       </c>
@@ -2355,8 +4763,14 @@
       <c r="BF38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU38" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="CC38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>6</v>
       </c>
@@ -2387,8 +4801,14 @@
       <c r="BF39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU39" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="CC39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>8</v>
       </c>
@@ -2419,8 +4839,11 @@
       <c r="BF40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>6</v>
       </c>
@@ -2451,8 +4874,14 @@
       <c r="BF41" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU41" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="CC41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>9</v>
       </c>
@@ -2483,8 +4912,11 @@
       <c r="BF42" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>10</v>
       </c>
@@ -2515,8 +4947,14 @@
       <c r="BF43" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU43" t="s">
+        <v>163</v>
+      </c>
+      <c r="CC43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>11</v>
       </c>
@@ -2547,8 +4985,14 @@
       <c r="BF44" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU44" t="s">
+        <v>164</v>
+      </c>
+      <c r="CC44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>12</v>
       </c>
@@ -2579,8 +5023,14 @@
       <c r="BF45" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU45" t="s">
+        <v>155</v>
+      </c>
+      <c r="CC45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>12</v>
       </c>
@@ -2611,8 +5061,14 @@
       <c r="BF46" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU46" t="s">
+        <v>146</v>
+      </c>
+      <c r="CC46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>12</v>
       </c>
@@ -2643,8 +5099,14 @@
       <c r="BF47" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU47" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>13</v>
       </c>
@@ -2675,8 +5137,14 @@
       <c r="BF48" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="49" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU48" t="s">
+        <v>166</v>
+      </c>
+      <c r="CC48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>9</v>
       </c>
@@ -2707,8 +5175,11 @@
       <c r="BF49" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="50" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>13</v>
       </c>
@@ -2739,8 +5210,11 @@
       <c r="BF50" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>14</v>
       </c>
@@ -2771,8 +5245,11 @@
       <c r="BF51" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>10</v>
       </c>
@@ -2803,8 +5280,11 @@
       <c r="BF52" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>11</v>
       </c>
@@ -2835,8 +5315,14 @@
       <c r="BF53" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU53" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CC53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>12</v>
       </c>
@@ -2867,8 +5353,14 @@
       <c r="BF54" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU54" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="CC54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>15</v>
       </c>
@@ -2899,8 +5391,14 @@
       <c r="BF55" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU55" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="CC55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>9</v>
       </c>
@@ -2931,8 +5429,14 @@
       <c r="BF56" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU56" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="CC56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>12</v>
       </c>
@@ -2963,8 +5467,14 @@
       <c r="BF57" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU57" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CC57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>16</v>
       </c>
@@ -2995,8 +5505,14 @@
       <c r="BF58" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU58" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="CC58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>14</v>
       </c>
@@ -3027,8 +5543,11 @@
       <c r="BF59" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>17</v>
       </c>
@@ -3059,8 +5578,14 @@
       <c r="BF60" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU60" t="s">
+        <v>168</v>
+      </c>
+      <c r="CC60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>11</v>
       </c>
@@ -3091,8 +5616,14 @@
       <c r="BF61" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU61" t="s">
+        <v>169</v>
+      </c>
+      <c r="CC61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>18</v>
       </c>
@@ -3123,8 +5654,14 @@
       <c r="BF62" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="63" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU62" t="s">
+        <v>155</v>
+      </c>
+      <c r="CC62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>19</v>
       </c>
@@ -3155,8 +5692,14 @@
       <c r="BF63" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="64" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU63" t="s">
+        <v>146</v>
+      </c>
+      <c r="CC63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>20</v>
       </c>
@@ -3187,8 +5730,14 @@
       <c r="BF64" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="65" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU64" t="s">
+        <v>170</v>
+      </c>
+      <c r="CC64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>21</v>
       </c>
@@ -3219,8 +5768,14 @@
       <c r="BF65" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="66" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="BU65" t="s">
+        <v>171</v>
+      </c>
+      <c r="CC65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>18</v>
       </c>
@@ -3251,8 +5806,11 @@
       <c r="BF66" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="67" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>20</v>
       </c>
@@ -3283,8 +5841,11 @@
       <c r="BF67" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>21</v>
       </c>
@@ -3315,8 +5876,11 @@
       <c r="BF68" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="69" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>20</v>
       </c>
@@ -3347,8 +5911,11 @@
       <c r="BF69" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="70" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>22</v>
       </c>
@@ -3379,8 +5946,11 @@
       <c r="BF70" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="71" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>23</v>
       </c>
@@ -3411,8 +5981,11 @@
       <c r="BF71" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="72" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>20</v>
       </c>
@@ -3443,8 +6016,11 @@
       <c r="BF72" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>24</v>
       </c>
@@ -3475,8 +6051,11 @@
       <c r="BF73" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="74" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>22</v>
       </c>
@@ -3507,8 +6086,11 @@
       <c r="BF74" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="75" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>20</v>
       </c>
@@ -3539,8 +6121,11 @@
       <c r="BF75" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="76" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>22</v>
       </c>
@@ -3571,8 +6156,11 @@
       <c r="BF76" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="77" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC76" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>20</v>
       </c>
@@ -3603,8 +6191,11 @@
       <c r="BF77" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="78" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>25</v>
       </c>
@@ -3635,8 +6226,11 @@
       <c r="BF78" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="79" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>19</v>
       </c>
@@ -3667,8 +6261,11 @@
       <c r="BF79" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="80" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>25</v>
       </c>
@@ -3699,8 +6296,11 @@
       <c r="BF80" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="81" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>20</v>
       </c>
@@ -3731,8 +6331,11 @@
       <c r="BF81" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="82" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC81" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>26</v>
       </c>
@@ -3763,8 +6366,11 @@
       <c r="BF82" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="83" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>27</v>
       </c>
@@ -3795,8 +6401,11 @@
       <c r="BF83" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="84" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC83" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>27</v>
       </c>
@@ -3827,8 +6436,11 @@
       <c r="BF84" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="85" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC84" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>26</v>
       </c>
@@ -3859,8 +6471,11 @@
       <c r="BF85" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="86" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC85" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>26</v>
       </c>
@@ -3891,8 +6506,11 @@
       <c r="BF86" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="87" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC86" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>28</v>
       </c>
@@ -3923,8 +6541,11 @@
       <c r="BF87" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="88" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>29</v>
       </c>
@@ -3955,8 +6576,11 @@
       <c r="BF88" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="89" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>30</v>
       </c>
@@ -3987,8 +6611,11 @@
       <c r="BF89" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="90" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC89" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>28</v>
       </c>
@@ -4019,8 +6646,11 @@
       <c r="BF90" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="91" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>31</v>
       </c>
@@ -4051,8 +6681,11 @@
       <c r="BF91" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="92" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC91" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>26</v>
       </c>
@@ -4083,8 +6716,11 @@
       <c r="BF92" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="93" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>31</v>
       </c>
@@ -4115,8 +6751,11 @@
       <c r="BF93" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="94" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC93" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>28</v>
       </c>
@@ -4147,8 +6786,11 @@
       <c r="BF94" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="95" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC94" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>26</v>
       </c>
@@ -4179,8 +6821,11 @@
       <c r="BF95" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="96" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC95" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>26</v>
       </c>
@@ -4211,8 +6856,11 @@
       <c r="BF96" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="97" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC96" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>29</v>
       </c>
@@ -4243,8 +6891,11 @@
       <c r="BF97" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="98" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC97" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>26</v>
       </c>
@@ -4275,8 +6926,11 @@
       <c r="BF98" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="99" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC98" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>26</v>
       </c>
@@ -4307,8 +6961,11 @@
       <c r="BF99" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="100" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC99" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>26</v>
       </c>
@@ -4339,8 +6996,11 @@
       <c r="BF100" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="101" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC100" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>29</v>
       </c>
@@ -4371,8 +7031,11 @@
       <c r="BF101" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="102" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC101" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>32</v>
       </c>
@@ -4403,8 +7066,11 @@
       <c r="BF102" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="103" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC102" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>32</v>
       </c>
@@ -4435,8 +7101,11 @@
       <c r="BF103" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="104" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC103" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>33</v>
       </c>
@@ -4467,8 +7136,11 @@
       <c r="BF104" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="105" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC104" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>32</v>
       </c>
@@ -4499,8 +7171,11 @@
       <c r="BF105" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="106" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC105" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>34</v>
       </c>
@@ -4531,8 +7206,11 @@
       <c r="BF106" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="107" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC106" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>33</v>
       </c>
@@ -4563,8 +7241,11 @@
       <c r="BF107" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="108" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC107" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>33</v>
       </c>
@@ -4595,8 +7276,11 @@
       <c r="BF108" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="109" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC108" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>35</v>
       </c>
@@ -4627,8 +7311,11 @@
       <c r="BF109" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="110" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC109" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="110" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>32</v>
       </c>
@@ -4659,8 +7346,11 @@
       <c r="BF110" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="111" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC110" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>35</v>
       </c>
@@ -4691,8 +7381,11 @@
       <c r="BF111" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="112" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>36</v>
       </c>
@@ -4723,8 +7416,11 @@
       <c r="BF112" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="113" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC112" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>32</v>
       </c>
@@ -4755,8 +7451,11 @@
       <c r="BF113" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="114" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC113" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>36</v>
       </c>
@@ -4787,8 +7486,11 @@
       <c r="BF114" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="115" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC114" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="115" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>37</v>
       </c>
@@ -4819,8 +7521,11 @@
       <c r="BF115" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="116" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC115" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>37</v>
       </c>
@@ -4851,8 +7556,11 @@
       <c r="BF116" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="117" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC116" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>33</v>
       </c>
@@ -4883,8 +7591,11 @@
       <c r="BF117" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="118" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC117" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>37</v>
       </c>
@@ -4915,8 +7626,11 @@
       <c r="BF118" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="119" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC118" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>35</v>
       </c>
@@ -4947,8 +7661,11 @@
       <c r="BF119" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="120" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC119" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>37</v>
       </c>
@@ -4979,8 +7696,11 @@
       <c r="BF120" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="121" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC120" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>33</v>
       </c>
@@ -5011,8 +7731,11 @@
       <c r="BF121" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="122" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC121" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>38</v>
       </c>
@@ -5043,8 +7766,11 @@
       <c r="BF122" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="123" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC122" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="123" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>38</v>
       </c>
@@ -5075,8 +7801,11 @@
       <c r="BF123" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="124" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC123" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>38</v>
       </c>
@@ -5107,8 +7836,11 @@
       <c r="BF124" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="125" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC124" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>38</v>
       </c>
@@ -5139,8 +7871,11 @@
       <c r="BF125" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="126" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC125" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="126" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>38</v>
       </c>
@@ -5171,8 +7906,11 @@
       <c r="BF126" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="127" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC126" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>38</v>
       </c>
@@ -5203,8 +7941,11 @@
       <c r="BF127" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="128" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC127" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>38</v>
       </c>
@@ -5235,8 +7976,11 @@
       <c r="BF128" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="129" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC128" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>39</v>
       </c>
@@ -5267,8 +8011,11 @@
       <c r="BF129" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="130" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC129" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="130" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>38</v>
       </c>
@@ -5299,8 +8046,11 @@
       <c r="BF130" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="131" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC130" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>38</v>
       </c>
@@ -5331,8 +8081,11 @@
       <c r="BF131" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="132" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC131" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="132" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>38</v>
       </c>
@@ -5363,8 +8116,11 @@
       <c r="BF132" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="133" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC132" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="133" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>39</v>
       </c>
@@ -5395,8 +8151,11 @@
       <c r="BF133" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="134" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC133" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="134" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>40</v>
       </c>
@@ -5427,8 +8186,11 @@
       <c r="BF134" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="135" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC134" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>38</v>
       </c>
@@ -5459,8 +8221,11 @@
       <c r="BF135" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="136" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC135" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="136" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>38</v>
       </c>
@@ -5491,8 +8256,11 @@
       <c r="BF136" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="137" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC136" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>38</v>
       </c>
@@ -5523,8 +8291,11 @@
       <c r="BF137" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="138" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC137" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="138" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>41</v>
       </c>
@@ -5555,8 +8326,11 @@
       <c r="BF138" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="139" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC138" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="139" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>42</v>
       </c>
@@ -5587,8 +8361,11 @@
       <c r="BF139" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="140" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC139" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="140" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>38</v>
       </c>
@@ -5619,8 +8396,11 @@
       <c r="BF140" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="141" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC140" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="141" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>38</v>
       </c>
@@ -5651,8 +8431,11 @@
       <c r="BF141" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="142" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC141" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="142" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>43</v>
       </c>
@@ -5683,8 +8466,11 @@
       <c r="BF142" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="143" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC142" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="143" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>44</v>
       </c>
@@ -5715,8 +8501,11 @@
       <c r="BF143" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="144" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC143" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="144" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>45</v>
       </c>
@@ -5747,8 +8536,11 @@
       <c r="BF144" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="145" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC144" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>44</v>
       </c>
@@ -5779,8 +8571,11 @@
       <c r="BF145" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="146" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC145" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="146" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>44</v>
       </c>
@@ -5811,8 +8606,11 @@
       <c r="BF146" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="147" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC146" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="147" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>45</v>
       </c>
@@ -5843,8 +8641,11 @@
       <c r="BF147" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="148" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC147" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="148" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>44</v>
       </c>
@@ -5875,8 +8676,11 @@
       <c r="BF148" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="149" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC148" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="149" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>44</v>
       </c>
@@ -5907,8 +8711,11 @@
       <c r="BF149" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="150" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC149" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="150" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>44</v>
       </c>
@@ -5939,8 +8746,11 @@
       <c r="BF150" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="151" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC150" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="151" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>46</v>
       </c>
@@ -5971,8 +8781,11 @@
       <c r="BF151" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="152" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC151" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="152" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>44</v>
       </c>
@@ -6003,8 +8816,11 @@
       <c r="BF152" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="153" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC152" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="153" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>44</v>
       </c>
@@ -6035,8 +8851,11 @@
       <c r="BF153" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="154" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC153" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="154" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>47</v>
       </c>
@@ -6067,8 +8886,11 @@
       <c r="BF154" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="155" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC154" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="155" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>45</v>
       </c>
@@ -6099,8 +8921,11 @@
       <c r="BF155" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="156" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC155" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="156" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>47</v>
       </c>
@@ -6131,8 +8956,11 @@
       <c r="BF156" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="157" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC156" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="157" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>47</v>
       </c>
@@ -6163,8 +8991,11 @@
       <c r="BF157" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="158" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC157" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="158" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>47</v>
       </c>
@@ -6195,8 +9026,11 @@
       <c r="BF158" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="159" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC158" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="159" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>44</v>
       </c>
@@ -6227,8 +9061,11 @@
       <c r="BF159" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="160" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC159" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="160" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>45</v>
       </c>
@@ -6259,8 +9096,11 @@
       <c r="BF160" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="161" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC160" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="161" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>44</v>
       </c>
@@ -6291,8 +9131,11 @@
       <c r="BF161" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="162" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC161" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="162" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>48</v>
       </c>
@@ -6323,8 +9166,11 @@
       <c r="BF162" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="163" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC162" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="163" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>49</v>
       </c>
@@ -6355,8 +9201,11 @@
       <c r="BF163" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="164" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC163" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="164" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>50</v>
       </c>
@@ -6387,8 +9236,11 @@
       <c r="BF164" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="165" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC164" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>51</v>
       </c>
@@ -6419,8 +9271,11 @@
       <c r="BF165" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="166" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC165" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>50</v>
       </c>
@@ -6451,8 +9306,11 @@
       <c r="BF166" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="167" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC166" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="167" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>51</v>
       </c>
@@ -6483,8 +9341,11 @@
       <c r="BF167" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="168" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC167" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="168" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>48</v>
       </c>
@@ -6515,8 +9376,11 @@
       <c r="BF168" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="169" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC168" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>50</v>
       </c>
@@ -6547,8 +9411,11 @@
       <c r="BF169" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="170" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC169" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>50</v>
       </c>
@@ -6579,8 +9446,11 @@
       <c r="BF170" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="171" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC170" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="171" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>50</v>
       </c>
@@ -6611,8 +9481,11 @@
       <c r="BF171" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="172" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC171" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="172" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>50</v>
       </c>
@@ -6643,8 +9516,11 @@
       <c r="BF172" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="173" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC172" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="173" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>50</v>
       </c>
@@ -6675,8 +9551,11 @@
       <c r="BF173" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="174" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC173" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="174" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>50</v>
       </c>
@@ -6707,8 +9586,11 @@
       <c r="BF174" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="175" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC174" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>52</v>
       </c>
@@ -6739,8 +9621,11 @@
       <c r="BF175" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="176" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC175" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="176" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>52</v>
       </c>
@@ -6771,8 +9656,11 @@
       <c r="BF176" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="177" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC176" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="177" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>50</v>
       </c>
@@ -6803,8 +9691,11 @@
       <c r="BF177" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="178" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC177" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="178" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>50</v>
       </c>
@@ -6835,8 +9726,11 @@
       <c r="BF178" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="179" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC178" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="179" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>51</v>
       </c>
@@ -6867,8 +9761,11 @@
       <c r="BF179" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="180" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC179" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="180" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>50</v>
       </c>
@@ -6899,8 +9796,11 @@
       <c r="BF180" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="181" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC180" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="181" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>51</v>
       </c>
@@ -6931,8 +9831,11 @@
       <c r="BF181" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="182" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC181" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="182" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>53</v>
       </c>
@@ -6963,8 +9866,11 @@
       <c r="BF182" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="183" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC182" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="183" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>54</v>
       </c>
@@ -6995,8 +9901,11 @@
       <c r="BF183" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="184" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC183" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="184" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>55</v>
       </c>
@@ -7027,8 +9936,11 @@
       <c r="BF184" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="185" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC184" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="185" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>56</v>
       </c>
@@ -7059,8 +9971,11 @@
       <c r="BF185" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="186" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC185" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="186" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>56</v>
       </c>
@@ -7091,8 +10006,11 @@
       <c r="BF186" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="187" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC186" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="187" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>57</v>
       </c>
@@ -7123,8 +10041,11 @@
       <c r="BF187" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="188" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC187" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="188" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>54</v>
       </c>
@@ -7155,8 +10076,11 @@
       <c r="BF188" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="189" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC188" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="189" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>57</v>
       </c>
@@ -7187,8 +10111,11 @@
       <c r="BF189" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="190" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC189" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="190" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>58</v>
       </c>
@@ -7219,8 +10146,11 @@
       <c r="BF190" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="191" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC190" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="191" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>59</v>
       </c>
@@ -7251,8 +10181,11 @@
       <c r="BF191" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="192" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC191" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="192" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>57</v>
       </c>
@@ -7283,8 +10216,11 @@
       <c r="BF192" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="193" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC192" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="193" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>56</v>
       </c>
@@ -7315,8 +10251,11 @@
       <c r="BF193" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="194" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC193" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="194" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>57</v>
       </c>
@@ -7347,8 +10286,11 @@
       <c r="BF194" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="195" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC194" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="195" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>57</v>
       </c>
@@ -7379,8 +10321,11 @@
       <c r="BF195" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="196" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC195" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="196" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>55</v>
       </c>
@@ -7411,8 +10356,11 @@
       <c r="BF196" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="197" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC196" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="197" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>60</v>
       </c>
@@ -7443,8 +10391,11 @@
       <c r="BF197" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="198" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC197" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="198" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>61</v>
       </c>
@@ -7475,8 +10426,11 @@
       <c r="BF198" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="199" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC198" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="199" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>53</v>
       </c>
@@ -7507,8 +10461,11 @@
       <c r="BF199" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="200" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC199" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="200" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>56</v>
       </c>
@@ -7539,8 +10496,11 @@
       <c r="BF200" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="201" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC200" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="201" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>53</v>
       </c>
@@ -7571,8 +10531,11 @@
       <c r="BF201" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="202" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="CC201" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="202" spans="2:81" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>62</v>
       </c>
@@ -7603,8 +10566,12 @@
       <c r="BF202" t="s">
         <v>115</v>
       </c>
+      <c r="CC202" t="s">
+        <v>176</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>